--- a/biology/Biochimie/PyMOL/PyMOL.xlsx
+++ b/biology/Biochimie/PyMOL/PyMOL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">PyMOL est un logiciel libre de visualisation de structures chimiques en 3D créé par Warren DeLano. Il est principalement utilisé par les étudiants, les professeurs et les chercheurs en chimie et en biologie structurale. Il est développé en Python et est multiplateformes. Ainsi, il fonctionne sous Windows, Mac OS X, Linux et les systèmes Unix. Ce logiciel est régulièrement utilisé pour produire des images 3D de grande qualité pour la publication scientifique. Selon l'auteur, environ un quart des images 3D de protéines publiées dans la littérature scientifique est réalisé avec PyMOL.
 </t>
@@ -511,7 +523,9 @@
           <t>Modes de visualisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le logiciel PyMOL supporte de nombreux modes de visualisation :
 Fil de fer : les liaisons entre deux atomes sont représentées par un fil dont la couleur indique l'élément atomique représenté. Cette visualisation est utile car très légère et permet par exemple de positionner la molécule dans l'orientation souhaitée avant de réaliser un rendu visuel plus détaillé et long.
@@ -547,7 +561,9 @@
           <t>Fichiers supportés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>PyMOL, de par son utilisation dans plusieurs domaines de la chimie et de la biologie, supporte plusieurs types de fichier :
 structure (PDB, CIF, MOL, SDF, MOL2...) ;
